--- a/biology/Botanique/Ras_R'mal/Ras_R'mal.xlsx
+++ b/biology/Botanique/Ras_R'mal/Ras_R'mal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ras_R%27mal</t>
+          <t>Ras_R'mal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ras R'mal (arabe : رأس الرمل) est une presqu'île sablonneuse de l'île de Djerba en Tunisie, dont la superficie avoisine les 1 856 hectares. Il s'agit d'une zone humide classée site Ramsar depuis le 7 novembre 2007[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ras R'mal (arabe : رأس الرمل) est une presqu'île sablonneuse de l'île de Djerba en Tunisie, dont la superficie avoisine les 1 856 hectares. Il s'agit d'une zone humide classée site Ramsar depuis le 7 novembre 2007.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ras_R%27mal</t>
+          <t>Ras_R'mal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Délimitations
-Elle se rattache au littoral de Djerba, dans la zone de Mezraya, par le biais d'un isthme sablonneux appelé Bin Bahrin[2] qui empêche l'accès à la presqu'île pendant les marées hautes.
+          <t>Délimitations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rattache au littoral de Djerba, dans la zone de Mezraya, par le biais d'un isthme sablonneux appelé Bin Bahrin qui empêche l'accès à la presqu'île pendant les marées hautes.
 Cette presqu'île sépare la mer de la lagune Bhar Mayet ou Bhar Sghir qui est un site ornithologique important.
-Hachani
-L'isthme et la zone de Sidi Hachani appartiennent aussi à un site Ramsar[1].
-Hachani ou Sidi Hachani fait référence au nom d'une vieille mosquée côtière détruite par l'érosion marine. Cette mosquée bâtie au XVIe siècle a été nommée du nom du cheikh Ahmed Hachani qui gardait cette côte et qui est originaire du village de Hachan[3].
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ras_R%27mal</t>
+          <t>Ras_R'mal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,20 +558,137 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hachani</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'isthme et la zone de Sidi Hachani appartiennent aussi à un site Ramsar.
+Hachani ou Sidi Hachani fait référence au nom d'une vieille mosquée côtière détruite par l'érosion marine. Cette mosquée bâtie au XVIe siècle a été nommée du nom du cheikh Ahmed Hachani qui gardait cette côte et qui est originaire du village de Hachan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ras_R'mal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ras_R%27mal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Patrimoine naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Flore
-Les dunes de Sidi Hachani nécessitent une attention particulière en raison de la flore diversifiée qu'elles abritent.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dunes de Sidi Hachani nécessitent une attention particulière en raison de la flore diversifiée qu'elles abritent.
 			Floraison Hmadha (حماضة).
 			Smara (سمارة), plante utilisée pour la fabrication des nattes.
 			Clôtures qui protègent les dunes et la flore qu'elles abritent.
-Faune
-La lagune, les dunes et la presqu'île abritent diverses espèces de mollusques, de crustacés, de poissons, quelques reptiles et des oiseaux qui y trouvent un milieu favorable à leur reproduction.
-Oiseaux
-Cette zone est un site ornithologique important riche en faune aviaire, un site de nidification et un relais migratoire idéal d'hivernage et de halte pour de nombreux oiseaux migrateurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ras_R'mal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ras_R%27mal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Patrimoine naturel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lagune, les dunes et la presqu'île abritent diverses espèces de mollusques, de crustacés, de poissons, quelques reptiles et des oiseaux qui y trouvent un milieu favorable à leur reproduction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ras_R'mal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ras_R%27mal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Patrimoine naturel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette zone est un site ornithologique important riche en faune aviaire, un site de nidification et un relais migratoire idéal d'hivernage et de halte pour de nombreux oiseaux migrateurs.
 Deux miradors sont installés au bord de la lagune pour faciliter l'observation des oiseaux.
 Espèces sédentaires
 Laridae
@@ -659,41 +790,80 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ras_R%27mal</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ras_R'mal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ras_R%27mal</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pêche
-La pêche dans cette zone est considérée comme une pêche côtière artisanale qui intéresse quelques amateurs venant des villages voisins.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pêche</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La pêche dans cette zone est considérée comme une pêche côtière artisanale qui intéresse quelques amateurs venant des villages voisins.
 Hachani comme la lagune de Taguermess est connue pour la pêche à l'anchois. Les pêcheurs encerclent les bancs d'anchois et les capturent avec un filet en forme de poche (kis). L'anchois est ensuite séché dans la sebkha.
 Les techniques les plus utilisées sont :
 la pêche à la sautade (hlig) en groupe ;
 la pêche à l'épervier ;
-la pêche à la ligne.
-Tourisme
-Chaque année, Ras R'mal accueille des milliers de touristes qui font la traversée en bateaux (bateaux pirates) en provenance du port de Houmt Souk. Cette presqu'île est connue par les touristes sous le nom d'île des flamants roses.
+la pêche à la ligne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ras_R'mal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ras_R%27mal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tourisme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque année, Ras R'mal accueille des milliers de touristes qui font la traversée en bateaux (bateaux pirates) en provenance du port de Houmt Souk. Cette presqu'île est connue par les touristes sous le nom d'île des flamants roses.
 			Groupe de touristes qui viennent en bateau.
 			Bateaux pirates.
 			Côte vue d'un bateau.
